--- a/entrega 3/NuevaAsignacion and DiasLibres.xlsx
+++ b/entrega 3/NuevaAsignacion and DiasLibres.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\simio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\Simio\entrega 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
   <autoFilter ref="A1:I101">
     <filterColumn colId="1">
       <filters>
-        <filter val="paper"/>
+        <filter val="bright"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
